--- a/Invest/investment.xlsx
+++ b/Invest/investment.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -295,13 +295,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,19 +602,20 @@
     <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.42578125" style="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.42578125" style="1"/>
+    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -700,184 +701,216 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11460</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>108</v>
+      </c>
+      <c r="F6" s="4">
+        <f>(C6*D6)+E6</f>
+        <v>23028</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="12" t="s">
+      <c r="A7" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3660</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>52</v>
+      </c>
+      <c r="F7" s="4">
+        <f>(C7*D7)+E7</f>
+        <v>11032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13">
-        <f>SUM(D3:D6)</f>
-        <v>7</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="13">
+        <f>SUM(D3:D7)</f>
+        <v>12</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
-        <f>SUM(F3:F6)</f>
-        <v>27409</v>
-      </c>
-      <c r="F8" s="8">
-        <f>E8/4000</f>
-        <v>6.8522499999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="E9" s="7">
+        <f>SUM(F3:F7)</f>
+        <v>61469</v>
+      </c>
+      <c r="F9" s="8">
+        <f>E9/4000</f>
+        <v>15.36725</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A3:G5">
     <sortCondition ref="B3:B5"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
@@ -885,11 +918,13 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
